--- a/public/ejemplos/Ejm_actividad.xlsx
+++ b/public/ejemplos/Ejm_actividad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\horarios\public\ejemplos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF030EB-5AAC-4197-A9B2-69820B7B0DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45F1DA4-CC76-4171-A46E-D475E865CEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0BF16BD2-FF2F-4582-A6BA-529DB8B42295}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0BF16BD2-FF2F-4582-A6BA-529DB8B42295}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
     <t>PROGRAMACIÓN ORIENTADA A OBJETOS</t>
   </si>
   <si>
-    <t>MIERCOLESs</t>
+    <t>MIERCOLES</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
